--- a/course/day_5/example.xlsx
+++ b/course/day_5/example.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/GitLab/pyt/course/day_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00AA969-F793-0F4A-82BD-F4AC67CE2DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2236ABC8-7D8A-F14C-AE42-EB84AD99FB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="820" windowWidth="28240" windowHeight="16920" xr2:uid="{1B6E11E4-0C14-4041-9D45-C8B511705C1A}"/>
+    <workbookView xWindow="8100" yWindow="800" windowWidth="28240" windowHeight="16920" activeTab="1" xr2:uid="{1B6E11E4-0C14-4041-9D45-C8B511705C1A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Früchte" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA69524-D36D-1747-A909-0D9FBC41C089}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -527,7 +527,7 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>4711</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -536,10 +536,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B860ABD-889E-4947-94CA-C77529B66077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D44761-2FFD-6444-9E56-BD99E4B3D5D6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>

--- a/course/day_5/example.xlsx
+++ b/course/day_5/example.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/GitLab/pyt/course/day_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2236ABC8-7D8A-F14C-AE42-EB84AD99FB84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75799EE0-9F34-FF45-BA35-9B9F1C5E4F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="800" windowWidth="28240" windowHeight="16920" activeTab="1" xr2:uid="{1B6E11E4-0C14-4041-9D45-C8B511705C1A}"/>
+    <workbookView xWindow="8100" yWindow="800" windowWidth="28240" windowHeight="16920" xr2:uid="{1B6E11E4-0C14-4041-9D45-C8B511705C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Früchte" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -70,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,18 +421,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA69524-D36D-1747-A909-0D9FBC41C089}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -442,7 +443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43983</v>
       </c>
@@ -453,7 +454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43984</v>
       </c>
@@ -464,7 +465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43985</v>
       </c>
@@ -475,7 +476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43986</v>
       </c>
@@ -486,7 +487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43987</v>
       </c>
@@ -497,7 +498,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43988</v>
       </c>
@@ -508,7 +509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43989</v>
       </c>
@@ -519,7 +520,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43990</v>
       </c>
@@ -539,9 +540,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D44761-2FFD-6444-9E56-BD99E4B3D5D6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763987D5-AD08-4540-8F51-97CF6BFF3023}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/course/day_5/example.xlsx
+++ b/course/day_5/example.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/GitLab/pyt/course/day_5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/GitRepository/pyt/course/day_5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75799EE0-9F34-FF45-BA35-9B9F1C5E4F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4FB2B8-2FEB-E844-BA9C-E1BECA3E6AB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="800" windowWidth="28240" windowHeight="16920" xr2:uid="{1B6E11E4-0C14-4041-9D45-C8B511705C1A}"/>
+    <workbookView xWindow="5480" yWindow="1680" windowWidth="28240" windowHeight="16920" xr2:uid="{1B6E11E4-0C14-4041-9D45-C8B511705C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Früchte" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="4" r:id="rId3"/>
+    <sheet name="Tabelle3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Apples</t>
   </si>
@@ -62,6 +63,9 @@
   </si>
   <si>
     <t>Number</t>
+  </si>
+  <si>
+    <t>äöü</t>
   </si>
 </sst>
 </file>
@@ -448,7 +452,7 @@
         <v>43983</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>73</v>
@@ -558,4 +562,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A228EC-10DE-5847-9FB6-A91585B2D27D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>